--- a/Data/Excels/ARAP_NoGlobal_TwoPoints_1.xlsx
+++ b/Data/Excels/ARAP_NoGlobal_TwoPoints_1.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>InRays</t>
+          <t>{'TwoPoints'}</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -741,17 +741,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1,02e-02</t>
+          <t>0,00e+00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
@@ -830,7 +830,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2,95e-03</t>
+          <t>2,00e-03</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -870,18 +870,18 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>3,20</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -915,17 +915,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2,67e-03</t>
+          <t>2,18e-03</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -961,12 +961,12 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2,93e-03</t>
+          <t>2,57e-03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1046,12 +1046,12 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
@@ -1085,17 +1085,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2,97e-03</t>
+          <t>2,66e-03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1131,12 +1131,12 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3,03e-03</t>
+          <t>2,78e-03</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1220,22 +1220,22 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-9,03</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>85,01</t>
+          <t>84,32</t>
         </is>
       </c>
     </row>
@@ -1267,17 +1267,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>6,41e-04</t>
+          <t>0,00e+00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1317,12 +1317,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,20</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1,80e-04</t>
+          <t>1,90e-04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1,29e-04</t>
+          <t>1,14e-04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1526,17 +1526,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9,80e-05</t>
+          <t>1,22e-04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1572,12 +1572,12 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
@@ -1611,17 +1611,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7,56e-05</t>
+          <t>1,29e-04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1657,12 +1657,12 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>6,22e-05</t>
+          <t>1,36e-04</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1746,22 +1746,22 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>10,68</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>58,26</t>
+          <t>58,69</t>
         </is>
       </c>
     </row>
@@ -1793,17 +1793,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1,03e-02</t>
+          <t>0,00e+00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3,90</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1,30</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3,95e-03</t>
+          <t>3,85e-03</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1928,12 +1928,12 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>3,90</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
@@ -1967,17 +1967,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4,12e-03</t>
+          <t>3,94e-03</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2013,12 +2013,12 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>3,30</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
@@ -2057,12 +2057,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4,15e-03</t>
+          <t>4,18e-03</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2098,12 +2098,12 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="R20" t="inlineStr"/>
@@ -2137,17 +2137,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4,37e-03</t>
+          <t>4,20e-03</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2183,7 +2183,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>3,30</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4,44e-03</t>
+          <t>4,50e-03</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2277,17 +2277,17 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>70,13</t>
+          <t>70,03</t>
         </is>
       </c>
     </row>
@@ -2319,17 +2319,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1,58e-01</t>
+          <t>0,00e+00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>12,24</t>
+          <t>13,77</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>15,41</t>
+          <t>16,32</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
@@ -2408,17 +2408,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1,49e-01</t>
+          <t>1,16e-01</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2454,12 +2454,12 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>13,50</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>16,95</t>
+          <t>15,37</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1,47e-01</t>
+          <t>1,29e-01</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2539,12 +2539,12 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>13,75</t>
+          <t>12,76</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>15,81</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
@@ -2578,17 +2578,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1,55e-01</t>
+          <t>1,33e-01</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2624,12 +2624,12 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>13,40</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>17,71</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1,48e-01</t>
+          <t>1,49e-01</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2709,12 +2709,12 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>14,38</t>
+          <t>14,22</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>18,27</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
@@ -2748,17 +2748,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1,56e-01</t>
+          <t>1,50e-01</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2798,22 +2798,22 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>14,85</t>
+          <t>14,90</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>18,95</t>
+          <t>19,08</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-21,36</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>92,49</t>
+          <t>92,79</t>
         </is>
       </c>
     </row>
@@ -2845,17 +2845,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1,10e-03</t>
+          <t>0,00e+00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2895,12 +2895,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="R29" t="inlineStr"/>
@@ -2934,17 +2934,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3,99e-04</t>
+          <t>3,79e-04</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2980,12 +2980,12 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>4,20</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="R30" t="inlineStr"/>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3,56e-04</t>
+          <t>2,63e-04</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3065,12 +3065,12 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="R31" t="inlineStr"/>
@@ -3104,17 +3104,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3,33e-04</t>
+          <t>2,75e-04</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3150,12 +3150,12 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="R32" t="inlineStr"/>
@@ -3189,17 +3189,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3,23e-04</t>
+          <t>2,90e-04</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3235,12 +3235,12 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>4,10</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>5,30</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="R33" t="inlineStr"/>
@@ -3274,17 +3274,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3,20e-04</t>
+          <t>3,02e-04</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>5,30</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>26,92</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>45,44</t>
+          <t>40,70</t>
         </is>
       </c>
     </row>
@@ -3371,17 +3371,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1,79e-01</t>
+          <t>0,00e+00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>12,90</t>
+          <t>14,59</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>16,37</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="R35" t="inlineStr"/>
@@ -3460,17 +3460,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12,98</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2,58e-02</t>
+          <t>1,48e-01</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3506,12 +3506,12 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>13,80</t>
+          <t>14,16</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>16,61</t>
+          <t>17,85</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
@@ -3545,17 +3545,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12,64</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1,17e-02</t>
+          <t>1,66e-01</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3591,12 +3591,12 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>13,57</t>
+          <t>14,84</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>16,44</t>
+          <t>18,82</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -3630,17 +3630,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1,12e-02</t>
+          <t>1,84e-01</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3676,12 +3676,12 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>13,16</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>19,51</t>
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
@@ -3715,17 +3715,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>9,69</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1,21e-02</t>
+          <t>1,87e-01</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3761,12 +3761,12 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>15,97</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16,02</t>
+          <t>20,04</t>
         </is>
       </c>
       <c r="R39" t="inlineStr"/>
@@ -3800,17 +3800,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2,45e-02</t>
+          <t>1,98e-01</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3850,22 +3850,22 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>15,90</t>
+          <t>20,81</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>-0,10</t>
+          <t>-12,96</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>67,47</t>
+          <t>86,07</t>
         </is>
       </c>
     </row>
@@ -3897,17 +3897,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1,02e-03</t>
+          <t>0,00e+00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3947,12 +3947,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="R41" t="inlineStr"/>
@@ -3986,17 +3986,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>4,40e-04</t>
+          <t>3,67e-04</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4032,12 +4032,12 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1,90</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="R42" t="inlineStr"/>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4,09e-04</t>
+          <t>3,01e-04</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4117,12 +4117,12 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="R43" t="inlineStr"/>
@@ -4156,17 +4156,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3,96e-04</t>
+          <t>3,38e-04</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4202,12 +4202,12 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="R44" t="inlineStr"/>
@@ -4241,17 +4241,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3,91e-04</t>
+          <t>3,68e-04</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4287,12 +4287,12 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="R45" t="inlineStr"/>
@@ -4326,17 +4326,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3,91e-04</t>
+          <t>3,98e-04</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4376,22 +4376,22 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>20,88</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>47,36</t>
+          <t>49,59</t>
         </is>
       </c>
     </row>
@@ -4512,17 +4512,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1,67e-03</t>
+          <t>1,88e-03</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4558,12 +4558,12 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>3,70</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="R48" t="inlineStr"/>
@@ -4597,17 +4597,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1,95e-03</t>
+          <t>2,05e-03</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4643,7 +4643,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
@@ -4852,17 +4852,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2,35e-03</t>
+          <t>2,38e-03</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -4912,12 +4912,12 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>70,12</t>
+          <t>70,06</t>
         </is>
       </c>
     </row>
@@ -5038,17 +5038,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1,47e-03</t>
+          <t>1,82e-03</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5084,12 +5084,12 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="R54" t="inlineStr"/>
@@ -5123,17 +5123,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1,78e-03</t>
+          <t>1,75e-03</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5169,12 +5169,12 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="R55" t="inlineStr"/>
@@ -5208,17 +5208,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1,74e-03</t>
+          <t>1,75e-03</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5254,12 +5254,12 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>5,20</t>
         </is>
       </c>
       <c r="R56" t="inlineStr"/>
@@ -5293,17 +5293,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1,75e-03</t>
+          <t>1,79e-03</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5339,12 +5339,12 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>4,40</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
@@ -5378,17 +5378,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1,83e-03</t>
+          <t>1,89e-03</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5428,22 +5428,22 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>5,10</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>25,27</t>
+          <t>25,52</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>41,27</t>
+          <t>41,13</t>
         </is>
       </c>
     </row>
@@ -5564,17 +5564,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1,30</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1,10e-01</t>
+          <t>1,28e-01</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5610,12 +5610,12 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>12,66</t>
+          <t>12,60</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>15,59</t>
+          <t>15,54</t>
         </is>
       </c>
       <c r="R60" t="inlineStr"/>
@@ -5649,12 +5649,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -5695,12 +5695,12 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>15,89</t>
+          <t>16,10</t>
         </is>
       </c>
       <c r="R61" t="inlineStr"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1,38e-01</t>
+          <t>1,39e-01</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5780,12 +5780,12 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>13,28</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>16,38</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="R62" t="inlineStr"/>
@@ -5819,17 +5819,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1,44e-01</t>
+          <t>1,43e-01</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5865,12 +5865,12 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>13,56</t>
+          <t>13,40</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>16,78</t>
+          <t>16,65</t>
         </is>
       </c>
       <c r="R63" t="inlineStr"/>
@@ -5904,17 +5904,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1,48e-01</t>
+          <t>1,46e-01</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5954,22 +5954,22 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>13,95</t>
+          <t>13,48</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17,36</t>
+          <t>16,76</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>71,75</t>
+          <t>69,31</t>
         </is>
       </c>
     </row>
@@ -6090,17 +6090,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2,22e-03</t>
+          <t>2,21e-04</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6136,12 +6136,12 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>10,80</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>13,36</t>
+          <t>13,37</t>
         </is>
       </c>
       <c r="R66" t="inlineStr"/>
@@ -6175,17 +6175,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1,11e-03</t>
+          <t>1,10e-04</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6260,17 +6260,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>4,87e-04</t>
+          <t>1,17e-04</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>13,39</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
@@ -6345,17 +6345,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2,62e-04</t>
+          <t>1,27e-04</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6391,12 +6391,12 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>13,40</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="R69" t="inlineStr"/>
@@ -6430,17 +6430,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>0,50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>0,52</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1,78e-04</t>
+          <t>1,37e-04</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6480,22 +6480,22 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>13,40</t>
+          <t>13,39</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>286,55</t>
+          <t>286,25</t>
         </is>
       </c>
     </row>
@@ -6616,17 +6616,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1,51e-03</t>
+          <t>1,78e-04</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6662,12 +6662,12 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>7,60</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="R72" t="inlineStr"/>
@@ -6701,17 +6701,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>7,64e-04</t>
+          <t>9,17e-05</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6747,7 +6747,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -6786,17 +6786,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3,46e-04</t>
+          <t>9,52e-05</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1,94e-04</t>
+          <t>1,03e-04</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="R75" t="inlineStr"/>
@@ -6956,17 +6956,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1,40e-04</t>
+          <t>1,11e-04</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7006,22 +7006,22 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>303,15</t>
+          <t>302,97</t>
         </is>
       </c>
     </row>
@@ -7142,17 +7142,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1,93e-03</t>
+          <t>2,13e-04</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7188,7 +7188,7 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>10,82</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -7227,17 +7227,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1,09e-03</t>
+          <t>1,37e-04</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7312,17 +7312,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1,04e-03</t>
+          <t>1,33e-04</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7358,7 +7358,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -7397,17 +7397,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>9,22e-04</t>
+          <t>1,15e-04</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7443,7 +7443,7 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>3,23e-04</t>
+          <t>1,31e-04</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7542,12 +7542,12 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>230,55</t>
+          <t>230,46</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>3,55e-02</t>
+          <t>3,57e-02</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>4,21e-02</t>
+          <t>4,18e-02</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7799,12 +7799,12 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>26,52</t>
+          <t>26,55</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>33,06</t>
+          <t>33,08</t>
         </is>
       </c>
       <c r="R85" t="inlineStr"/>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>4,57e-02</t>
+          <t>4,54e-02</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7884,12 +7884,12 @@
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>26,85</t>
+          <t>26,94</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>33,37</t>
+          <t>33,45</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>4,77e-02</t>
+          <t>4,92e-02</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7969,12 +7969,12 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>27,27</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>33,53</t>
+          <t>33,78</t>
         </is>
       </c>
       <c r="R87" t="inlineStr"/>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>4,77e-02</t>
+          <t>5,07e-02</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8058,22 +8058,22 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>27,19</t>
+          <t>27,47</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>33,71</t>
+          <t>33,99</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>166,07</t>
+          <t>167,77</t>
         </is>
       </c>
     </row>
@@ -8194,17 +8194,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>1,70e-03</t>
+          <t>2,12e-04</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8240,12 +8240,12 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>14,12</t>
+          <t>14,13</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>16,78</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="R90" t="inlineStr"/>
@@ -8279,17 +8279,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>8,57e-04</t>
+          <t>1,19e-04</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8325,12 +8325,12 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>14,11</t>
+          <t>14,12</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>16,77</t>
+          <t>16,78</t>
         </is>
       </c>
       <c r="R91" t="inlineStr"/>
@@ -8364,17 +8364,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>3,98e-04</t>
+          <t>1,20e-04</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8410,12 +8410,12 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>14,10</t>
+          <t>14,12</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>16,78</t>
         </is>
       </c>
       <c r="R92" t="inlineStr"/>
@@ -8454,12 +8454,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2,46e-04</t>
+          <t>1,23e-04</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8495,12 +8495,12 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>14,10</t>
+          <t>14,12</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>16,78</t>
         </is>
       </c>
       <c r="R93" t="inlineStr"/>
@@ -8534,17 +8534,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>0,40</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>0,40</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>1,91e-04</t>
+          <t>1,28e-04</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8584,22 +8584,22 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>14,10</t>
+          <t>14,12</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>16,78</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>141,01</t>
+          <t>141,15</t>
         </is>
       </c>
     </row>
@@ -8720,17 +8720,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>3,70e-02</t>
+          <t>3,36e-02</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8766,12 +8766,12 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>37,86</t>
+          <t>37,88</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>46,96</t>
+          <t>46,97</t>
         </is>
       </c>
       <c r="R96" t="inlineStr"/>
@@ -8810,7 +8810,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -8851,12 +8851,12 @@
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>38,00</t>
+          <t>37,98</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>47,08</t>
+          <t>47,06</t>
         </is>
       </c>
       <c r="R97" t="inlineStr"/>
@@ -8895,12 +8895,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3,92e-02</t>
+          <t>3,81e-02</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -8936,12 +8936,12 @@
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>38,20</t>
+          <t>38,10</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>47,25</t>
+          <t>47,16</t>
         </is>
       </c>
       <c r="R98" t="inlineStr"/>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>4,30e-02</t>
+          <t>4,20e-02</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9021,12 +9021,12 @@
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>38,28</t>
+          <t>38,24</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>47,31</t>
+          <t>47,28</t>
         </is>
       </c>
       <c r="R99" t="inlineStr"/>
@@ -9065,12 +9065,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>4,55e-02</t>
+          <t>4,46e-02</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9110,22 +9110,22 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>38,36</t>
+          <t>38,31</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>47,38</t>
+          <t>47,34</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>191,22</t>
+          <t>190,98</t>
         </is>
       </c>
     </row>
@@ -9246,17 +9246,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>6,96e-03</t>
+          <t>6,82e-03</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -9292,7 +9292,7 @@
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>29,87</t>
+          <t>29,88</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>7,23e-03</t>
+          <t>7,12e-03</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -9377,12 +9377,12 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>29,79</t>
+          <t>29,80</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>41,82</t>
+          <t>41,83</t>
         </is>
       </c>
       <c r="R103" t="inlineStr"/>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>7,96e-03</t>
+          <t>8,19e-03</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -9462,12 +9462,12 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>29,71</t>
+          <t>29,68</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>41,74</t>
+          <t>41,72</t>
         </is>
       </c>
       <c r="R104" t="inlineStr"/>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>8,71e-03</t>
+          <t>8,77e-03</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -9547,12 +9547,12 @@
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>29,63</t>
+          <t>29,61</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>41,67</t>
+          <t>41,66</t>
         </is>
       </c>
       <c r="R105" t="inlineStr"/>
@@ -9591,12 +9591,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>9,28e-03</t>
+          <t>9,43e-03</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -9636,22 +9636,22 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>29,57</t>
+          <t>29,55</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>41,61</t>
+          <t>41,59</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>4,60</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>126,16</t>
+          <t>126,07</t>
         </is>
       </c>
     </row>
@@ -9772,17 +9772,17 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>9,83e-03</t>
+          <t>7,92e-03</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -9818,12 +9818,12 @@
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>33,08</t>
+          <t>33,13</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>44,46</t>
+          <t>44,49</t>
         </is>
       </c>
       <c r="R108" t="inlineStr"/>
@@ -9857,17 +9857,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>8,90e-03</t>
+          <t>8,05e-03</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -9903,12 +9903,12 @@
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>33,06</t>
+          <t>33,08</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>44,39</t>
+          <t>44,40</t>
         </is>
       </c>
       <c r="R109" t="inlineStr"/>
@@ -9942,17 +9942,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>9,31e-03</t>
+          <t>8,97e-03</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -9988,12 +9988,12 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>33,02</t>
+          <t>33,03</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>44,32</t>
+          <t>44,33</t>
         </is>
       </c>
       <c r="R110" t="inlineStr"/>
@@ -10027,17 +10027,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>1,01e-02</t>
+          <t>9,88e-03</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -10073,12 +10073,12 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>32,98</t>
+          <t>32,97</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>44,26</t>
+          <t>44,25</t>
         </is>
       </c>
       <c r="R111" t="inlineStr"/>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>1,08e-02</t>
+          <t>1,06e-02</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -10172,12 +10172,12 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>132,01</t>
+          <t>132,00</t>
         </is>
       </c>
     </row>
@@ -10298,17 +10298,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>5,43e-02</t>
+          <t>8,38e-02</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -10344,12 +10344,12 @@
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>52,53</t>
+          <t>52,31</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>74,41</t>
+          <t>74,40</t>
         </is>
       </c>
       <c r="R114" t="inlineStr"/>
@@ -10383,17 +10383,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>8,85e-02</t>
+          <t>8,40e-02</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -10429,12 +10429,12 @@
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>52,25</t>
+          <t>52,22</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>74,34</t>
+          <t>74,29</t>
         </is>
       </c>
       <c r="R115" t="inlineStr"/>
@@ -10468,17 +10468,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>8,69e-02</t>
+          <t>8,79e-02</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -10514,12 +10514,12 @@
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>52,21</t>
+          <t>52,16</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>74,26</t>
+          <t>74,20</t>
         </is>
       </c>
       <c r="R116" t="inlineStr"/>
@@ -10553,17 +10553,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>7,51e-02</t>
+          <t>9,25e-02</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -10599,12 +10599,12 @@
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>52,16</t>
+          <t>52,07</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>74,19</t>
+          <t>74,10</t>
         </is>
       </c>
       <c r="R117" t="inlineStr"/>
@@ -10638,17 +10638,17 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>7,70e-02</t>
+          <t>9,40e-02</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -10688,22 +10688,22 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>52,09</t>
+          <t>52,03</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>74,09</t>
+          <t>74,04</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>113,06</t>
+          <t>112,93</t>
         </is>
       </c>
     </row>
@@ -10824,17 +10824,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1,30</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>7,99e-02</t>
+          <t>1,12e-01</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -10870,12 +10870,12 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>59,44</t>
+          <t>59,36</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>79,59</t>
+          <t>79,55</t>
         </is>
       </c>
       <c r="R120" t="inlineStr"/>
@@ -10914,12 +10914,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>9,91e-02</t>
+          <t>1,05e-01</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -10955,12 +10955,12 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>59,27</t>
+          <t>59,25</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>79,41</t>
+          <t>79,40</t>
         </is>
       </c>
       <c r="R121" t="inlineStr"/>
@@ -10994,17 +10994,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>1,04e-01</t>
+          <t>1,10e-01</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -11040,12 +11040,12 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>59,18</t>
+          <t>59,13</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>79,31</t>
+          <t>79,28</t>
         </is>
       </c>
       <c r="R122" t="inlineStr"/>
@@ -11079,7 +11079,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>1,09e-01</t>
+          <t>1,15e-01</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -11125,12 +11125,12 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>59,05</t>
+          <t>59,04</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>79,18</t>
+          <t>79,19</t>
         </is>
       </c>
       <c r="R123" t="inlineStr"/>
@@ -11174,7 +11174,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1,14e-01</t>
+          <t>1,18e-01</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -11214,22 +11214,22 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>58,94</t>
+          <t>58,96</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>79,07</t>
+          <t>79,10</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>124,63</t>
+          <t>124,67</t>
         </is>
       </c>
     </row>
@@ -11350,17 +11350,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>1,77e-03</t>
+          <t>1,52e-04</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -11435,17 +11435,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>9,75e-04</t>
+          <t>8,60e-05</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -11520,17 +11520,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>5,00e-04</t>
+          <t>9,16e-05</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -11566,12 +11566,12 @@
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>21,88</t>
+          <t>21,87</t>
         </is>
       </c>
       <c r="R128" t="inlineStr"/>
@@ -11610,12 +11610,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2,98e-04</t>
+          <t>1,00e-04</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -11651,12 +11651,12 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>21,88</t>
+          <t>21,87</t>
         </is>
       </c>
       <c r="R129" t="inlineStr"/>
@@ -11690,17 +11690,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
           <t>0,50</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>0,50</t>
-        </is>
-      </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2,05e-04</t>
+          <t>1,09e-04</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -11740,22 +11740,22 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>21,88</t>
+          <t>21,87</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>447,51</t>
+          <t>447,39</t>
         </is>
       </c>
     </row>
@@ -11876,17 +11876,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>1,80e-03</t>
+          <t>1,70e-04</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -11922,12 +11922,12 @@
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>18,03</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>22,09</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="R132" t="inlineStr"/>
@@ -11961,17 +11961,17 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>1,12e-03</t>
+          <t>1,18e-04</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -12007,12 +12007,12 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>18,02</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>22,09</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="R133" t="inlineStr"/>
@@ -12046,17 +12046,17 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>6,42e-04</t>
+          <t>1,36e-04</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -12131,17 +12131,17 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>4,43e-04</t>
+          <t>1,56e-04</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -12226,7 +12226,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>3,45e-04</t>
+          <t>1,75e-04</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -12276,12 +12276,12 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>720,04</t>
+          <t>720,18</t>
         </is>
       </c>
     </row>
@@ -12402,17 +12402,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>1,70e-03</t>
+          <t>1,45e-04</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -12442,7 +12442,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="O138" t="inlineStr"/>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>24,39</t>
+          <t>24,40</t>
         </is>
       </c>
       <c r="R138" t="inlineStr"/>
@@ -12487,17 +12487,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>8,34e-04</t>
+          <t>7,52e-05</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -12572,17 +12572,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>4,14e-04</t>
+          <t>8,23e-05</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -12657,17 +12657,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0,50</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>2,66e-04</t>
+          <t>9,33e-05</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>2,05e-04</t>
+          <t>1,04e-04</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>20,20</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -12802,12 +12802,12 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>444,50</t>
+          <t>444,42</t>
         </is>
       </c>
     </row>
@@ -12928,17 +12928,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>3,27e-03</t>
+          <t>2,68e-04</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -12974,12 +12974,12 @@
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>42,21</t>
+          <t>42,29</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>52,26</t>
+          <t>52,30</t>
         </is>
       </c>
       <c r="R144" t="inlineStr"/>
@@ -13013,17 +13013,17 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2,01e-03</t>
+          <t>1,61e-04</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -13059,12 +13059,12 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>42,24</t>
+          <t>42,30</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>52,27</t>
+          <t>52,30</t>
         </is>
       </c>
       <c r="R145" t="inlineStr"/>
@@ -13098,17 +13098,17 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>1,09e-03</t>
+          <t>1,79e-04</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -13144,12 +13144,12 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>42,27</t>
+          <t>42,30</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>52,29</t>
+          <t>52,30</t>
         </is>
       </c>
       <c r="R146" t="inlineStr"/>
@@ -13183,17 +13183,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>7,18e-04</t>
+          <t>2,04e-04</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -13229,7 +13229,7 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>42,29</t>
+          <t>42,30</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>5,30e-04</t>
+          <t>2,30e-04</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>275,14</t>
+          <t>275,15</t>
         </is>
       </c>
     </row>
@@ -13454,17 +13454,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>1,81e-03</t>
+          <t>1,80e-04</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -13500,12 +13500,12 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>20,59</t>
+          <t>20,63</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>25,13</t>
+          <t>25,15</t>
         </is>
       </c>
       <c r="R150" t="inlineStr"/>
@@ -13539,17 +13539,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,50</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>9,50e-04</t>
+          <t>1,12e-04</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -13585,12 +13585,12 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>20,58</t>
+          <t>20,62</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>25,13</t>
+          <t>25,15</t>
         </is>
       </c>
       <c r="R151" t="inlineStr"/>
@@ -13624,17 +13624,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>4,74e-04</t>
+          <t>1,22e-04</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -13670,12 +13670,12 @@
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>20,58</t>
+          <t>20,61</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>25,12</t>
+          <t>25,14</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
@@ -13709,17 +13709,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2,88e-04</t>
+          <t>1,32e-04</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -13755,12 +13755,12 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>20,58</t>
+          <t>20,60</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>25,12</t>
+          <t>25,14</t>
         </is>
       </c>
       <c r="R153" t="inlineStr"/>
@@ -13794,17 +13794,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>2,18e-04</t>
+          <t>1,44e-04</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -13844,22 +13844,22 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>20,58</t>
+          <t>20,59</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>25,12</t>
+          <t>25,13</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>1,70</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>205,75</t>
+          <t>205,94</t>
         </is>
       </c>
     </row>
@@ -13980,17 +13980,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2,69e-03</t>
+          <t>2,30e-04</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -14026,12 +14026,12 @@
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>45,89</t>
+          <t>46,00</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>56,41</t>
+          <t>56,45</t>
         </is>
       </c>
       <c r="R156" t="inlineStr"/>
@@ -14065,17 +14065,17 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>1,45e-03</t>
+          <t>1,27e-04</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -14111,12 +14111,12 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>45,92</t>
+          <t>46,00</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>56,43</t>
+          <t>56,46</t>
         </is>
       </c>
       <c r="R157" t="inlineStr"/>
@@ -14150,17 +14150,17 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>6,61e-04</t>
+          <t>1,32e-04</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -14196,12 +14196,12 @@
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>45,95</t>
+          <t>46,00</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>56,44</t>
+          <t>56,45</t>
         </is>
       </c>
       <c r="R158" t="inlineStr"/>
@@ -14235,17 +14235,17 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>3,70e-04</t>
+          <t>1,43e-04</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -14281,7 +14281,7 @@
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>45,97</t>
+          <t>45,99</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
@@ -14320,17 +14320,17 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2,54e-04</t>
+          <t>1,55e-04</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -14370,7 +14370,7 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>45,98</t>
+          <t>45,99</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
@@ -14380,12 +14380,12 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>238,74</t>
+          <t>238,78</t>
         </is>
       </c>
     </row>
@@ -14506,17 +14506,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>6,22e-02</t>
+          <t>6,68e-02</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -14552,12 +14552,12 @@
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>70,80</t>
+          <t>70,75</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>106,49</t>
+          <t>106,46</t>
         </is>
       </c>
       <c r="R162" t="inlineStr"/>
@@ -14591,17 +14591,17 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
           <t>0,91</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>6,63e-02</t>
+          <t>6,93e-02</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -14637,12 +14637,12 @@
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>70,51</t>
+          <t>70,48</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>106,26</t>
+          <t>106,23</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -14686,7 +14686,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>6,65e-02</t>
+          <t>6,77e-02</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -14722,12 +14722,12 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>70,42</t>
+          <t>70,41</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>106,13</t>
+          <t>106,11</t>
         </is>
       </c>
       <c r="R164" t="inlineStr"/>
@@ -14771,7 +14771,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>6,97e-02</t>
+          <t>7,08e-02</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -14807,12 +14807,12 @@
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
-          <t>70,33</t>
+          <t>70,32</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>106,02</t>
+          <t>106,00</t>
         </is>
       </c>
       <c r="R165" t="inlineStr"/>
@@ -14851,12 +14851,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>7,27e-02</t>
+          <t>7,38e-02</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -14896,22 +14896,22 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>70,25</t>
+          <t>70,24</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>105,94</t>
+          <t>105,91</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>4,60</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>153,96</t>
+          <t>153,94</t>
         </is>
       </c>
     </row>
@@ -15037,12 +15037,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2,69e-02</t>
+          <t>2,72e-02</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -15078,12 +15078,12 @@
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr">
         <is>
-          <t>74,56</t>
+          <t>74,55</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>116,44</t>
+          <t>116,43</t>
         </is>
       </c>
       <c r="R168" t="inlineStr"/>
@@ -15117,17 +15117,17 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2,63e-02</t>
+          <t>2,59e-02</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -15163,12 +15163,12 @@
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr">
         <is>
-          <t>74,41</t>
+          <t>74,43</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>116,35</t>
+          <t>116,36</t>
         </is>
       </c>
       <c r="R169" t="inlineStr"/>
@@ -15248,12 +15248,12 @@
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr">
         <is>
-          <t>74,33</t>
+          <t>74,32</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>116,30</t>
+          <t>116,29</t>
         </is>
       </c>
       <c r="R170" t="inlineStr"/>
@@ -15297,7 +15297,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2,77e-02</t>
+          <t>2,78e-02</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -15333,12 +15333,12 @@
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>74,23</t>
+          <t>74,22</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>116,24</t>
+          <t>116,23</t>
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2,93e-02</t>
+          <t>2,92e-02</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -15437,7 +15437,7 @@
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>171,57</t>
+          <t>171,56</t>
         </is>
       </c>
     </row>
@@ -15558,17 +15558,17 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>1,36e-01</t>
+          <t>2,53e-01</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -15604,12 +15604,12 @@
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr">
         <is>
-          <t>110,24</t>
+          <t>109,61</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>169,67</t>
+          <t>169,24</t>
         </is>
       </c>
       <c r="R174" t="inlineStr"/>
@@ -15643,17 +15643,17 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2,54e-01</t>
+          <t>2,69e-01</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -15689,12 +15689,12 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>109,45</t>
+          <t>109,31</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>169,14</t>
+          <t>168,84</t>
         </is>
       </c>
       <c r="R175" t="inlineStr"/>
@@ -15728,17 +15728,17 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>2,79e-01</t>
+          <t>2,95e-01</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -15774,12 +15774,12 @@
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>109,23</t>
+          <t>109,06</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>168,83</t>
+          <t>168,55</t>
         </is>
       </c>
       <c r="R176" t="inlineStr"/>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>3,03e-01</t>
+          <t>3,14e-01</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -15859,12 +15859,12 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>108,97</t>
+          <t>108,81</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>168,57</t>
+          <t>168,30</t>
         </is>
       </c>
       <c r="R177" t="inlineStr"/>
@@ -15898,17 +15898,17 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>3,21e-01</t>
+          <t>3,30e-01</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -15948,22 +15948,22 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>108,71</t>
+          <t>108,53</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>168,31</t>
+          <t>168,01</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>134,22</t>
+          <t>133,99</t>
         </is>
       </c>
     </row>
@@ -16084,17 +16084,17 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>9,93e-02</t>
+          <t>2,69e-01</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -16130,12 +16130,12 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr">
         <is>
-          <t>119,50</t>
+          <t>118,32</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>165,07</t>
+          <t>164,43</t>
         </is>
       </c>
       <c r="R180" t="inlineStr"/>
@@ -16169,17 +16169,17 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2,18e-01</t>
+          <t>3,71e-01</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -16215,12 +16215,12 @@
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr">
         <is>
-          <t>118,37</t>
+          <t>118,15</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>164,42</t>
+          <t>164,16</t>
         </is>
       </c>
       <c r="R181" t="inlineStr"/>
@@ -16259,7 +16259,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -16300,12 +16300,12 @@
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr">
         <is>
-          <t>118,09</t>
+          <t>118,02</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>164,10</t>
+          <t>163,94</t>
         </is>
       </c>
       <c r="R182" t="inlineStr"/>
@@ -16339,17 +16339,17 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>3,66e-01</t>
+          <t>3,90e-01</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -16385,12 +16385,12 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>117,98</t>
+          <t>117,92</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>163,90</t>
+          <t>163,84</t>
         </is>
       </c>
       <c r="R183" t="inlineStr"/>
@@ -16429,12 +16429,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>3,87e-01</t>
+          <t>3,95e-01</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -16474,22 +16474,22 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>117,87</t>
+          <t>117,74</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>163,80</t>
+          <t>163,69</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>137,28</t>
+          <t>137,12</t>
         </is>
       </c>
     </row>
